--- a/Header of the dataset.xlsx
+++ b/Header of the dataset.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,115 +456,10 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>updated</t>
+          <t>type</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>tz</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>url</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>detail</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>felt</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>cdi</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>mmi</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>alert</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>status</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>tsunami</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>sig</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>net</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>code</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>ids</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>sources</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>types</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>nst</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>dmin</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>rms</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>gap</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>magType</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>type</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>title</t>
         </is>
@@ -590,89 +485,12 @@
       <c r="E2" t="n">
         <v>1695331332556</v>
       </c>
-      <c r="F2" t="n">
-        <v>1695418035832</v>
-      </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>https://earthquake.usgs.gov/earthquakes/eventpage/us7000kx7t</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>https://earthquake.usgs.gov/fdsnws/event/1/query?eventid=us7000kx7t&amp;format=geojson</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>2.984</v>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>green</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>reviewed</t>
-        </is>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>500</v>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>us</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>7000kx7t</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>,usauto7000kx7t,us7000kx7t,</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>,usauto,us,</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>,internal-moment-tensor,losspager,moment-tensor,origin,phase-data,shakemap,</t>
-        </is>
-      </c>
-      <c r="V2" t="n">
-        <v>66</v>
-      </c>
-      <c r="W2" t="n">
-        <v>2.751</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>66</v>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>mww</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>earthquake</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>M 5.7 - Izu Islands, Japan region</t>
         </is>
@@ -698,93 +516,12 @@
       <c r="E3" t="n">
         <v>1695330709950</v>
       </c>
-      <c r="F3" t="n">
-        <v>1695417515235</v>
-      </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>https://earthquake.usgs.gov/earthquakes/eventpage/us7000kx7j</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>https://earthquake.usgs.gov/fdsnws/event/1/query?eventid=us7000kx7j&amp;format=geojson</t>
-        </is>
-      </c>
-      <c r="J3" t="n">
-        <v>2</v>
-      </c>
-      <c r="K3" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="L3" t="n">
-        <v>4.064</v>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>green</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>reviewed</t>
-        </is>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>574</v>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>us</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>7000kx7j</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>,us7000kx7j,usauto7000kx7j,pt23264001,at00s1ctjr,</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>,us,usauto,pt,at,</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>,dyfi,ground-failure,internal-moment-tensor,internal-origin,losspager,moment-tensor,origin,phase-data,shakemap,</t>
-        </is>
-      </c>
-      <c r="V3" t="n">
-        <v>76</v>
-      </c>
-      <c r="W3" t="n">
-        <v>7.076</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>mww</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>earthquake</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>M 6.1 - 41 km WSW of Sola, Vanuatu</t>
         </is>
@@ -810,89 +547,12 @@
       <c r="E4" t="n">
         <v>1695309632162</v>
       </c>
-      <c r="F4" t="n">
-        <v>1695396869104</v>
-      </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>https://earthquake.usgs.gov/earthquakes/eventpage/us7000kx4l</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>https://earthquake.usgs.gov/fdsnws/event/1/query?eventid=us7000kx4l&amp;format=geojson</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>4.267</v>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>green</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>reviewed</t>
-        </is>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>482</v>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>us</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>7000kx4l</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>,usauto7000kx4l,pt23264000,us7000kx4l,</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>,usauto,pt,us,</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>,internal-moment-tensor,internal-origin,losspager,moment-tensor,origin,phase-data,shakemap,</t>
-        </is>
-      </c>
-      <c r="V4" t="n">
-        <v>206</v>
-      </c>
-      <c r="W4" t="n">
-        <v>1.399</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>44</v>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>mww</t>
-        </is>
-      </c>
-      <c r="AA4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>earthquake</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>M 5.6 - Kermadec Islands, New Zealand</t>
         </is>
@@ -914,87 +574,12 @@
       <c r="E5" t="n">
         <v>1695289702893</v>
       </c>
-      <c r="F5" t="n">
-        <v>1695808711087</v>
-      </c>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>https://earthquake.usgs.gov/earthquakes/eventpage/us7000kx26</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>https://earthquake.usgs.gov/fdsnws/event/1/query?eventid=us7000kx26&amp;format=geojson</t>
-        </is>
-      </c>
-      <c r="J5" t="n">
-        <v>33</v>
-      </c>
-      <c r="K5" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>reviewed</t>
-        </is>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>398</v>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>us</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>7000kx26</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>,us7000kx26,</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>,us,</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>,dyfi,oaf,origin,phase-data,</t>
-        </is>
-      </c>
-      <c r="V5" t="n">
-        <v>85</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0.299</v>
-      </c>
-      <c r="X5" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>40</v>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>mb</t>
-        </is>
-      </c>
-      <c r="AA5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>earthquake</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t xml:space="preserve">M 5.0 - </t>
         </is>
@@ -1020,93 +605,12 @@
       <c r="E6" t="n">
         <v>1695258839537</v>
       </c>
-      <c r="F6" t="n">
-        <v>1695864241844</v>
-      </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>https://earthquake.usgs.gov/earthquakes/eventpage/us7000kx0x</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>https://earthquake.usgs.gov/fdsnws/event/1/query?eventid=us7000kx0x&amp;format=geojson</t>
-        </is>
-      </c>
-      <c r="J6" t="n">
-        <v>4</v>
-      </c>
-      <c r="K6" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="L6" t="n">
-        <v>4.306</v>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>green</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>reviewed</t>
-        </is>
-      </c>
-      <c r="O6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P6" t="n">
-        <v>451</v>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>us</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>7000kx0x</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>,at00s1ba3c,ak023c4mjyu4,us7000kx0x,usauto7000kx0x,</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>,at,ak,us,usauto,</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>,dyfi,ground-failure,impact-link,internal-moment-tensor,losspager,moment-tensor,oaf,origin,phase-data,shakemap,</t>
-        </is>
-      </c>
-      <c r="V6" t="n">
-        <v>133</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0.384</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>126</v>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>mww</t>
-        </is>
-      </c>
-      <c r="AA6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>earthquake</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>M 5.4 - 41 km SSE of Sand Point, Alaska</t>
         </is>
